--- a/xlsx/羅馬_intext.xlsx
+++ b/xlsx/羅馬_intext.xlsx
@@ -29,7 +29,7 @@
     <t>罗马 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_羅馬</t>
+    <t>体育运动_体育运动_足球_羅馬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%87_(%E6%84%8F%E5%A4%A7%E5%88%A9)</t>
